--- a/biology/Zoologie/Coccymys/Coccymys.xlsx
+++ b/biology/Zoologie/Coccymys/Coccymys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccymys est un genre de rongeurs de la sous-famille des Murinés.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques de Nouvelle-Guinée.
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (17 juin 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (17 juin 2016) :
 Coccymys albidens (Tate, 1951)
 Coccymys ruemmleri (Tate and Archbold, 1941)
-Selon ITIS      (16 juin 2016)[2]
+Selon ITIS      (16 juin 2016)
 Coccymys kirrhos Musser and Lunde, 2009
 Coccymys ruemmleri (Tate and Archbold, 1941)
 Coccymys shawmayeri (Hinton, 1943)</t>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Menzies, 1990 : A systematic revision of Pogonomelomys (Rodentia: Muridae) of New Guinea. Science in New Guinea, vol. 16, n. 3, p. 118–137.</t>
         </is>
